--- a/config_3.16/box_exchange_server.xlsx
+++ b/config_3.16/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="823">
   <si>
     <t>id|</t>
   </si>
@@ -5340,6 +5340,29 @@
   </si>
   <si>
     <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>桃花礼包抽奖（转盘）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6004,11 +6027,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8386,86 +8409,86 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="18" customFormat="1">
-      <c r="A80" s="51">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="28">
         <v>72</v>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="51">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="18">
         <v>78</v>
       </c>
-      <c r="L80" s="51">
+      <c r="L80" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="18" customFormat="1">
-      <c r="A81" s="51">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="28">
         <v>73</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="51">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18">
         <v>79</v>
       </c>
-      <c r="L81" s="51">
+      <c r="L81" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="18" customFormat="1">
-      <c r="A82" s="51">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="28">
         <v>74</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="51">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="18">
         <v>80</v>
       </c>
-      <c r="L82" s="51">
+      <c r="L82" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8581,6 +8604,34 @@
         <v>85</v>
       </c>
       <c r="L87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="51" customFormat="1">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="57" t="s">
+        <v>817</v>
+      </c>
+      <c r="C88" s="55">
+        <v>1615852800</v>
+      </c>
+      <c r="D88" s="55">
+        <v>1616428799</v>
+      </c>
+      <c r="E88" s="52">
+        <v>80</v>
+      </c>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="51">
+        <v>86</v>
+      </c>
+      <c r="L88" s="51">
         <v>1</v>
       </c>
     </row>
@@ -8595,11 +8646,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9623,10 +9674,10 @@
       <c r="B73" s="17">
         <v>72</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9637,10 +9688,10 @@
       <c r="B74" s="17">
         <v>73</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9651,10 +9702,10 @@
       <c r="B75" s="17">
         <v>74</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9725,6 +9776,20 @@
         <v>811</v>
       </c>
       <c r="D80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17">
+        <v>80</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="D81" s="51">
         <v>1</v>
       </c>
     </row>
@@ -9780,13 +9845,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E529"/>
+  <dimension ref="A1:E534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
+      <selection pane="bottomRight" activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16763,13 +16828,13 @@
       <c r="A498" s="13">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>78</v>
       </c>
-      <c r="C498" s="55">
+      <c r="C498" s="13">
         <v>11973</v>
       </c>
-      <c r="D498" s="55">
+      <c r="D498" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16777,13 +16842,13 @@
       <c r="A499" s="13">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>78</v>
       </c>
-      <c r="C499" s="55">
+      <c r="C499" s="13">
         <v>11974</v>
       </c>
-      <c r="D499" s="55">
+      <c r="D499" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16791,13 +16856,13 @@
       <c r="A500" s="13">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>78</v>
       </c>
-      <c r="C500" s="55">
+      <c r="C500" s="13">
         <v>11975</v>
       </c>
-      <c r="D500" s="55">
+      <c r="D500" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16805,13 +16870,13 @@
       <c r="A501" s="13">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>78</v>
       </c>
-      <c r="C501" s="55">
+      <c r="C501" s="13">
         <v>11976</v>
       </c>
-      <c r="D501" s="55">
+      <c r="D501" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16819,13 +16884,13 @@
       <c r="A502" s="13">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>78</v>
       </c>
-      <c r="C502" s="55">
+      <c r="C502" s="13">
         <v>11977</v>
       </c>
-      <c r="D502" s="55">
+      <c r="D502" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16833,13 +16898,13 @@
       <c r="A503" s="13">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>78</v>
       </c>
-      <c r="C503" s="55">
+      <c r="C503" s="13">
         <v>11978</v>
       </c>
-      <c r="D503" s="55">
+      <c r="D503" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16847,13 +16912,13 @@
       <c r="A504" s="13">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>78</v>
       </c>
-      <c r="C504" s="55">
+      <c r="C504" s="13">
         <v>11979</v>
       </c>
-      <c r="D504" s="55">
+      <c r="D504" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16861,13 +16926,13 @@
       <c r="A505" s="13">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>78</v>
       </c>
-      <c r="C505" s="55">
+      <c r="C505" s="13">
         <v>11980</v>
       </c>
-      <c r="D505" s="55">
+      <c r="D505" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16875,13 +16940,13 @@
       <c r="A506" s="13">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>78</v>
       </c>
-      <c r="C506" s="55">
+      <c r="C506" s="13">
         <v>11981</v>
       </c>
-      <c r="D506" s="55">
+      <c r="D506" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16889,13 +16954,13 @@
       <c r="A507" s="13">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>79</v>
       </c>
-      <c r="C507" s="55">
+      <c r="C507" s="13">
         <v>11982</v>
       </c>
-      <c r="D507" s="55">
+      <c r="D507" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16903,13 +16968,13 @@
       <c r="A508" s="13">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>79</v>
       </c>
-      <c r="C508" s="55">
+      <c r="C508" s="13">
         <v>11983</v>
       </c>
-      <c r="D508" s="55">
+      <c r="D508" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16917,13 +16982,13 @@
       <c r="A509" s="13">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>79</v>
       </c>
-      <c r="C509" s="55">
+      <c r="C509" s="13">
         <v>11984</v>
       </c>
-      <c r="D509" s="55">
+      <c r="D509" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16931,13 +16996,13 @@
       <c r="A510" s="13">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>79</v>
       </c>
-      <c r="C510" s="55">
+      <c r="C510" s="13">
         <v>11985</v>
       </c>
-      <c r="D510" s="55">
+      <c r="D510" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16945,13 +17010,13 @@
       <c r="A511" s="13">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>79</v>
       </c>
-      <c r="C511" s="55">
+      <c r="C511" s="13">
         <v>11986</v>
       </c>
-      <c r="D511" s="55">
+      <c r="D511" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16959,13 +17024,13 @@
       <c r="A512" s="13">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>79</v>
       </c>
-      <c r="C512" s="55">
+      <c r="C512" s="13">
         <v>11987</v>
       </c>
-      <c r="D512" s="55">
+      <c r="D512" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16973,13 +17038,13 @@
       <c r="A513" s="13">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>79</v>
       </c>
-      <c r="C513" s="55">
+      <c r="C513" s="13">
         <v>11988</v>
       </c>
-      <c r="D513" s="55">
+      <c r="D513" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16987,13 +17052,13 @@
       <c r="A514" s="13">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>79</v>
       </c>
-      <c r="C514" s="55">
+      <c r="C514" s="13">
         <v>11989</v>
       </c>
-      <c r="D514" s="55">
+      <c r="D514" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17001,13 +17066,13 @@
       <c r="A515" s="13">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>79</v>
       </c>
-      <c r="C515" s="55">
+      <c r="C515" s="13">
         <v>11990</v>
       </c>
-      <c r="D515" s="55">
+      <c r="D515" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17015,13 +17080,13 @@
       <c r="A516" s="13">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>80</v>
       </c>
-      <c r="C516" s="55">
+      <c r="C516" s="13">
         <v>11991</v>
       </c>
-      <c r="D516" s="55">
+      <c r="D516" s="13">
         <v>20</v>
       </c>
     </row>
@@ -17029,13 +17094,13 @@
       <c r="A517" s="13">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>80</v>
       </c>
-      <c r="C517" s="55">
+      <c r="C517" s="13">
         <v>11992</v>
       </c>
-      <c r="D517" s="55">
+      <c r="D517" s="13">
         <v>25</v>
       </c>
     </row>
@@ -17043,13 +17108,13 @@
       <c r="A518" s="13">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>80</v>
       </c>
-      <c r="C518" s="55">
+      <c r="C518" s="13">
         <v>11993</v>
       </c>
-      <c r="D518" s="55">
+      <c r="D518" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17057,13 +17122,13 @@
       <c r="A519" s="13">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>80</v>
       </c>
-      <c r="C519" s="55">
+      <c r="C519" s="13">
         <v>11994</v>
       </c>
-      <c r="D519" s="55">
+      <c r="D519" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17071,13 +17136,13 @@
       <c r="A520" s="13">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>80</v>
       </c>
-      <c r="C520" s="55">
+      <c r="C520" s="13">
         <v>11995</v>
       </c>
-      <c r="D520" s="55">
+      <c r="D520" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17085,13 +17150,13 @@
       <c r="A521" s="13">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>80</v>
       </c>
-      <c r="C521" s="55">
+      <c r="C521" s="13">
         <v>11996</v>
       </c>
-      <c r="D521" s="55">
+      <c r="D521" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17099,13 +17164,13 @@
       <c r="A522" s="13">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>80</v>
       </c>
-      <c r="C522" s="55">
+      <c r="C522" s="13">
         <v>11997</v>
       </c>
-      <c r="D522" s="55">
+      <c r="D522" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17113,13 +17178,13 @@
       <c r="A523" s="13">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>80</v>
       </c>
-      <c r="C523" s="55">
+      <c r="C523" s="13">
         <v>11998</v>
       </c>
-      <c r="D523" s="55">
+      <c r="D523" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17127,18 +17192,18 @@
       <c r="A524" s="13">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>80</v>
       </c>
-      <c r="C524" s="55">
+      <c r="C524" s="13">
         <v>11999</v>
       </c>
-      <c r="D524" s="55">
+      <c r="D524" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="1">
+      <c r="A525" s="13">
         <v>524</v>
       </c>
       <c r="B525" s="1">
@@ -17152,7 +17217,7 @@
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="1">
+      <c r="A526" s="13">
         <v>525</v>
       </c>
       <c r="B526" s="1">
@@ -17166,7 +17231,7 @@
       </c>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="1">
+      <c r="A527" s="13">
         <v>526</v>
       </c>
       <c r="B527" s="1">
@@ -17180,7 +17245,7 @@
       </c>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="1">
+      <c r="A528" s="13">
         <v>527</v>
       </c>
       <c r="B528" s="1">
@@ -17194,7 +17259,7 @@
       </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="1">
+      <c r="A529" s="13">
         <v>528</v>
       </c>
       <c r="B529" s="1">
@@ -17204,6 +17269,76 @@
         <v>12004</v>
       </c>
       <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="13">
+        <v>529</v>
+      </c>
+      <c r="B530" s="55">
+        <v>86</v>
+      </c>
+      <c r="C530" s="55">
+        <v>12005</v>
+      </c>
+      <c r="D530" s="55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="13">
+        <v>530</v>
+      </c>
+      <c r="B531" s="55">
+        <v>86</v>
+      </c>
+      <c r="C531" s="55">
+        <v>12006</v>
+      </c>
+      <c r="D531" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="13">
+        <v>531</v>
+      </c>
+      <c r="B532" s="55">
+        <v>86</v>
+      </c>
+      <c r="C532" s="55">
+        <v>12007</v>
+      </c>
+      <c r="D532" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="13">
+        <v>532</v>
+      </c>
+      <c r="B533" s="55">
+        <v>86</v>
+      </c>
+      <c r="C533" s="55">
+        <v>12008</v>
+      </c>
+      <c r="D533" s="55">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="13">
+        <v>533</v>
+      </c>
+      <c r="B534" s="55">
+        <v>86</v>
+      </c>
+      <c r="C534" s="55">
+        <v>12009</v>
+      </c>
+      <c r="D534" s="55">
         <v>1</v>
       </c>
     </row>
@@ -17216,11 +17351,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F534"/>
+  <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25036,548 +25171,633 @@
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="53">
+      <c r="A498" s="17">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>11973</v>
       </c>
-      <c r="C498" s="55"/>
-      <c r="D498" s="55" t="s">
+      <c r="C498" s="13"/>
+      <c r="D498" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E498" s="56" t="s">
+      <c r="E498" s="21" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="53">
+      <c r="A499" s="17">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>11974</v>
       </c>
-      <c r="C499" s="55"/>
-      <c r="D499" s="55" t="s">
+      <c r="C499" s="13"/>
+      <c r="D499" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E499" s="56" t="s">
+      <c r="E499" s="21" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="53">
+      <c r="A500" s="17">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>11975</v>
       </c>
-      <c r="C500" s="55"/>
-      <c r="D500" s="55" t="s">
+      <c r="C500" s="13"/>
+      <c r="D500" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E500" s="56" t="s">
+      <c r="E500" s="21" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="53">
+      <c r="A501" s="17">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>11976</v>
       </c>
-      <c r="C501" s="55"/>
-      <c r="D501" s="57" t="s">
+      <c r="C501" s="13"/>
+      <c r="D501" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E501" s="56" t="s">
+      <c r="E501" s="21" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="53">
+      <c r="A502" s="17">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>11977</v>
       </c>
-      <c r="C502" s="55"/>
-      <c r="D502" s="57" t="s">
+      <c r="C502" s="13"/>
+      <c r="D502" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E502" s="56" t="s">
+      <c r="E502" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="53">
+      <c r="A503" s="17">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>11978</v>
       </c>
-      <c r="C503" s="55"/>
-      <c r="D503" s="57" t="s">
+      <c r="C503" s="13"/>
+      <c r="D503" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E503" s="56" t="s">
+      <c r="E503" s="21" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="53">
+      <c r="A504" s="17">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>11979</v>
       </c>
-      <c r="C504" s="55"/>
-      <c r="D504" s="57" t="s">
+      <c r="C504" s="13"/>
+      <c r="D504" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E504" s="56" t="s">
+      <c r="E504" s="21" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="505" spans="1:5">
-      <c r="A505" s="53">
+      <c r="A505" s="17">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>11980</v>
       </c>
-      <c r="C505" s="55"/>
-      <c r="D505" s="57" t="s">
+      <c r="C505" s="13"/>
+      <c r="D505" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E505" s="56" t="s">
+      <c r="E505" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="53">
+      <c r="A506" s="17">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>11981</v>
       </c>
-      <c r="C506" s="55"/>
-      <c r="D506" s="57" t="s">
+      <c r="C506" s="13"/>
+      <c r="D506" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E506" s="56" t="s">
+      <c r="E506" s="21" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="53">
+      <c r="A507" s="17">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>11982</v>
       </c>
-      <c r="C507" s="55"/>
-      <c r="D507" s="55" t="s">
+      <c r="C507" s="13"/>
+      <c r="D507" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E507" s="56" t="s">
+      <c r="E507" s="21" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="53">
+      <c r="A508" s="17">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>11983</v>
       </c>
-      <c r="C508" s="55"/>
-      <c r="D508" s="55" t="s">
+      <c r="C508" s="13"/>
+      <c r="D508" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E508" s="56" t="s">
+      <c r="E508" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="53">
+      <c r="A509" s="17">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>11984</v>
       </c>
-      <c r="C509" s="55"/>
-      <c r="D509" s="55" t="s">
+      <c r="C509" s="13"/>
+      <c r="D509" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E509" s="56" t="s">
+      <c r="E509" s="21" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="53">
+      <c r="A510" s="17">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>11985</v>
       </c>
-      <c r="C510" s="55"/>
-      <c r="D510" s="57" t="s">
+      <c r="C510" s="13"/>
+      <c r="D510" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E510" s="56" t="s">
+      <c r="E510" s="21" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="53">
+      <c r="A511" s="17">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>11986</v>
       </c>
-      <c r="C511" s="55"/>
-      <c r="D511" s="57" t="s">
+      <c r="C511" s="13"/>
+      <c r="D511" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E511" s="56" t="s">
+      <c r="E511" s="21" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="53">
+      <c r="A512" s="17">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>11987</v>
       </c>
-      <c r="C512" s="55"/>
-      <c r="D512" s="57" t="s">
+      <c r="C512" s="13"/>
+      <c r="D512" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E512" s="56" t="s">
+      <c r="E512" s="21" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="53">
+      <c r="A513" s="17">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>11988</v>
       </c>
-      <c r="C513" s="55"/>
-      <c r="D513" s="57" t="s">
+      <c r="C513" s="13"/>
+      <c r="D513" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E513" s="56" t="s">
+      <c r="E513" s="21" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="53">
+      <c r="A514" s="17">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>11989</v>
       </c>
-      <c r="C514" s="55"/>
-      <c r="D514" s="57" t="s">
+      <c r="C514" s="13"/>
+      <c r="D514" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E514" s="56" t="s">
+      <c r="E514" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="53">
+      <c r="A515" s="17">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>11990</v>
       </c>
-      <c r="C515" s="55"/>
-      <c r="D515" s="57" t="s">
+      <c r="C515" s="13"/>
+      <c r="D515" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E515" s="56" t="s">
+      <c r="E515" s="21" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="53">
+      <c r="A516" s="17">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>11991</v>
       </c>
-      <c r="C516" s="55"/>
-      <c r="D516" s="55" t="s">
+      <c r="C516" s="13"/>
+      <c r="D516" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E516" s="56" t="s">
+      <c r="E516" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="53">
+      <c r="A517" s="17">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>11992</v>
       </c>
-      <c r="C517" s="55"/>
-      <c r="D517" s="55" t="s">
+      <c r="C517" s="13"/>
+      <c r="D517" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E517" s="56" t="s">
+      <c r="E517" s="21" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="53">
+      <c r="A518" s="17">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>11993</v>
       </c>
-      <c r="C518" s="55"/>
-      <c r="D518" s="57" t="s">
+      <c r="C518" s="13"/>
+      <c r="D518" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E518" s="56" t="s">
+      <c r="E518" s="21" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="53">
+      <c r="A519" s="17">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>11994</v>
       </c>
-      <c r="C519" s="55"/>
-      <c r="D519" s="57" t="s">
+      <c r="C519" s="13"/>
+      <c r="D519" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E519" s="56" t="s">
+      <c r="E519" s="21" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="53">
+      <c r="A520" s="17">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>11995</v>
       </c>
-      <c r="C520" s="55"/>
-      <c r="D520" s="57" t="s">
+      <c r="C520" s="13"/>
+      <c r="D520" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E520" s="56" t="s">
+      <c r="E520" s="21" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="53">
+      <c r="A521" s="17">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>11996</v>
       </c>
-      <c r="C521" s="55"/>
-      <c r="D521" s="57" t="s">
+      <c r="C521" s="13"/>
+      <c r="D521" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E521" s="56" t="s">
+      <c r="E521" s="21" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="53">
+      <c r="A522" s="17">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>11997</v>
       </c>
-      <c r="C522" s="55"/>
-      <c r="D522" s="57" t="s">
+      <c r="C522" s="13"/>
+      <c r="D522" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E522" s="56" t="s">
+      <c r="E522" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="53">
+      <c r="A523" s="17">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>11998</v>
       </c>
-      <c r="C523" s="55"/>
-      <c r="D523" s="57" t="s">
+      <c r="C523" s="13"/>
+      <c r="D523" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E523" s="56" t="s">
+      <c r="E523" s="21" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="53">
+      <c r="A524" s="17">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>11999</v>
       </c>
-      <c r="C524" s="55"/>
-      <c r="D524" s="57" t="s">
+      <c r="C524" s="13"/>
+      <c r="D524" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E524" s="56" t="s">
+      <c r="E524" s="21" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="53">
+      <c r="A525" s="17">
         <v>524</v>
       </c>
       <c r="B525" s="13">
         <v>12000</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="C525" s="13"/>
+      <c r="D525" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E525" s="41" t="s">
+      <c r="E525" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="53">
+      <c r="A526" s="17">
         <v>525</v>
       </c>
       <c r="B526" s="13">
         <v>12000</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="C526" s="13"/>
+      <c r="D526" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="E526" s="41" t="s">
+      <c r="E526" s="21" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="53">
+      <c r="A527" s="17">
         <v>526</v>
       </c>
       <c r="B527" s="13">
         <v>12000</v>
       </c>
-      <c r="D527" s="3" t="s">
+      <c r="C527" s="13"/>
+      <c r="D527" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E527" s="41" t="s">
+      <c r="E527" s="21" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="53">
+      <c r="A528" s="17">
         <v>527</v>
       </c>
       <c r="B528" s="13">
         <v>12001</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="C528" s="13"/>
+      <c r="D528" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="E528" s="41" t="s">
+      <c r="E528" s="21" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="53">
+      <c r="A529" s="17">
         <v>528</v>
       </c>
       <c r="B529" s="13">
         <v>12001</v>
       </c>
-      <c r="D529" s="3" t="s">
+      <c r="C529" s="13"/>
+      <c r="D529" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="E529" s="41" t="s">
+      <c r="E529" s="21" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="53">
+      <c r="A530" s="17">
         <v>529</v>
       </c>
       <c r="B530" s="13">
         <v>12002</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="C530" s="13"/>
+      <c r="D530" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E530" s="41" t="s">
+      <c r="E530" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="53">
+      <c r="A531" s="17">
         <v>530</v>
       </c>
       <c r="B531" s="13">
         <v>12002</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="C531" s="13"/>
+      <c r="D531" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="E531" s="41" t="s">
+      <c r="E531" s="21" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="53">
+      <c r="A532" s="17">
         <v>531</v>
       </c>
       <c r="B532" s="13">
         <v>12003</v>
       </c>
-      <c r="D532" s="3" t="s">
+      <c r="C532" s="13"/>
+      <c r="D532" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E532" s="41" t="s">
+      <c r="E532" s="21" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="53">
+      <c r="A533" s="17">
         <v>532</v>
       </c>
       <c r="B533" s="13">
         <v>12003</v>
       </c>
-      <c r="D533" s="3" t="s">
+      <c r="C533" s="13"/>
+      <c r="D533" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="E533" s="41" t="s">
+      <c r="E533" s="21" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="53">
+      <c r="A534" s="17">
         <v>533</v>
       </c>
       <c r="B534" s="13">
         <v>12004</v>
       </c>
-      <c r="D534" s="3" t="s">
+      <c r="C534" s="13"/>
+      <c r="D534" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="E534" s="41" t="s">
+      <c r="E534" s="21" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="17">
+        <v>534</v>
+      </c>
+      <c r="B535" s="55">
+        <v>12005</v>
+      </c>
+      <c r="C535" s="55"/>
+      <c r="D535" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E535" s="56" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="17">
+        <v>535</v>
+      </c>
+      <c r="B536" s="55">
+        <v>12006</v>
+      </c>
+      <c r="C536" s="55"/>
+      <c r="D536" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E536" s="56" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="17">
+        <v>536</v>
+      </c>
+      <c r="B537" s="55">
+        <v>12007</v>
+      </c>
+      <c r="C537" s="55"/>
+      <c r="D537" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E537" s="56" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="17">
+        <v>537</v>
+      </c>
+      <c r="B538" s="55">
+        <v>12008</v>
+      </c>
+      <c r="C538" s="55"/>
+      <c r="D538" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E538" s="56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="17">
+        <v>538</v>
+      </c>
+      <c r="B539" s="55">
+        <v>12009</v>
+      </c>
+      <c r="C539" s="55"/>
+      <c r="D539" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="E539" s="56" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
